--- a/biology/Zoologie/Aurivela_longicauda/Aurivela_longicauda.xlsx
+++ b/biology/Zoologie/Aurivela_longicauda/Aurivela_longicauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aurivela longicauda est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aurivela longicauda est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans les provinces de Catamarca, de La Pampa, de San Luis, de Córdoba, de Santiago del Estero, de Buenos Aires, de Chubut et de Río Negro[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans les provinces de Catamarca, de La Pampa, de San Luis, de Córdoba, de Santiago del Estero, de Buenos Aires, de Chubut et de Río Negro.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bell, 1843 : The Zoology of the Voyage of H.M.S. Beagle Under the Command of Captain Fitzroy, R.N., during the Years 1832 to 1836, vol. 5, p. 1-51 (texte intégral).</t>
         </is>
